--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1723.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1723.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4543568110285228</v>
+        <v>0.8745545148849487</v>
       </c>
       <c r="B1">
-        <v>0.9667381546064669</v>
+        <v>1.796998381614685</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.892711043794548</v>
+        <v>1.901783227920532</v>
       </c>
       <c r="E1">
-        <v>1.819954270746974</v>
+        <v>1.125640988349915</v>
       </c>
     </row>
   </sheetData>
